--- a/excel/summary_diagrams.xlsx
+++ b/excel/summary_diagrams.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13960" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="k=1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -125,7 +125,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
@@ -177,7 +177,7 @@
             <c:v>Collected Data</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225"/>
+            <a:ln w="19050"/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -191,152 +191,32 @@
                 <c:pt idx="0">
                   <c:v>1000.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9000.0</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>11000.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>13000.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17000.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19000.0</c:v>
-                </c:pt>
                 <c:pt idx="10">
                   <c:v>21000.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>23000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25000.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27000.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29000.0</c:v>
-                </c:pt>
                 <c:pt idx="15">
                   <c:v>31000.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>33000.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35000.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37000.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>39000.0</c:v>
-                </c:pt>
                 <c:pt idx="20">
                   <c:v>41000.0</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>43000.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45000.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>47000.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>49000.0</c:v>
-                </c:pt>
                 <c:pt idx="25">
                   <c:v>51000.0</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>53000.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>55000.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>57000.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>59000.0</c:v>
-                </c:pt>
                 <c:pt idx="30">
                   <c:v>61000.0</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>63000.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>65000.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>67000.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>69000.0</c:v>
-                </c:pt>
                 <c:pt idx="35">
                   <c:v>71000.0</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>73000.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>75000.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>77000.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>79000.0</c:v>
-                </c:pt>
                 <c:pt idx="40">
                   <c:v>81000.0</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>83000.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>85000.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>87000.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>89000.0</c:v>
-                </c:pt>
                 <c:pt idx="45">
                   <c:v>91000.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>93000.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>95000.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>97000.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>99000.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>101000.0</c:v>
@@ -515,7 +395,7 @@
             <c:v>Expected Value</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225"/>
+            <a:ln w="19050"/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -529,152 +409,32 @@
                 <c:pt idx="0">
                   <c:v>1000.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9000.0</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>11000.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>13000.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17000.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19000.0</c:v>
-                </c:pt>
                 <c:pt idx="10">
                   <c:v>21000.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>23000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25000.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27000.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29000.0</c:v>
-                </c:pt>
                 <c:pt idx="15">
                   <c:v>31000.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>33000.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35000.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37000.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>39000.0</c:v>
-                </c:pt>
                 <c:pt idx="20">
                   <c:v>41000.0</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>43000.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45000.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>47000.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>49000.0</c:v>
-                </c:pt>
                 <c:pt idx="25">
                   <c:v>51000.0</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>53000.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>55000.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>57000.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>59000.0</c:v>
-                </c:pt>
                 <c:pt idx="30">
                   <c:v>61000.0</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>63000.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>65000.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>67000.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>69000.0</c:v>
-                </c:pt>
                 <c:pt idx="35">
                   <c:v>71000.0</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>73000.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>75000.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>77000.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>79000.0</c:v>
-                </c:pt>
                 <c:pt idx="40">
                   <c:v>81000.0</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>83000.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>85000.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>87000.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>89000.0</c:v>
-                </c:pt>
                 <c:pt idx="45">
                   <c:v>91000.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>93000.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>95000.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>97000.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>99000.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>101000.0</c:v>
@@ -856,11 +616,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2072226696"/>
-        <c:axId val="2072198072"/>
+        <c:axId val="-2127077464"/>
+        <c:axId val="-2127069720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2072226696"/>
+        <c:axId val="-2127077464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -873,11 +633,15 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Bloom Filter Size in Bit</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Bloom Filter</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="2000" baseline="0"/>
+                  <a:t> Size in Bit</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -889,7 +653,17 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2072198072"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2127069720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -897,7 +671,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2072198072"/>
+        <c:axId val="-2127069720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,11 +685,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Number of 1 set</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Number of 1 set in BF emp</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -927,7 +701,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2072226696"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2127077464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -936,6 +720,16 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1655,11 +1449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2106493032"/>
-        <c:axId val="2106209048"/>
+        <c:axId val="-2103188312"/>
+        <c:axId val="-2103182824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2106493032"/>
+        <c:axId val="-2103188312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1688,7 +1482,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106209048"/>
+        <c:crossAx val="-2103182824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1696,7 +1490,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106209048"/>
+        <c:axId val="-2103182824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1731,7 +1525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106493032"/>
+        <c:crossAx val="-2103188312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2459,11 +2253,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2132084360"/>
-        <c:axId val="-2132078584"/>
+        <c:axId val="-2103150840"/>
+        <c:axId val="-2103145384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2132084360"/>
+        <c:axId val="-2103150840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2492,7 +2286,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132078584"/>
+        <c:crossAx val="-2103145384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2500,7 +2294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132078584"/>
+        <c:axId val="-2103145384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2535,7 +2329,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132084360"/>
+        <c:crossAx val="-2103150840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3263,11 +3057,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2135325448"/>
-        <c:axId val="-2135874952"/>
+        <c:axId val="-2103113064"/>
+        <c:axId val="-2103107576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2135325448"/>
+        <c:axId val="-2103113064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3296,7 +3090,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135874952"/>
+        <c:crossAx val="-2103107576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3304,7 +3098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2135874952"/>
+        <c:axId val="-2103107576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3339,7 +3133,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135325448"/>
+        <c:crossAx val="-2103113064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4067,11 +3861,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2132270696"/>
-        <c:axId val="-2133697048"/>
+        <c:axId val="-2103078072"/>
+        <c:axId val="-2103072520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2132270696"/>
+        <c:axId val="-2103078072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4100,7 +3894,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133697048"/>
+        <c:crossAx val="-2103072520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4108,7 +3902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2133697048"/>
+        <c:axId val="-2103072520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4143,7 +3937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132270696"/>
+        <c:crossAx val="-2103078072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4871,11 +4665,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2132605336"/>
-        <c:axId val="-2132212920"/>
+        <c:axId val="-2103059320"/>
+        <c:axId val="-2103053848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2132605336"/>
+        <c:axId val="-2103059320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4904,7 +4698,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132212920"/>
+        <c:crossAx val="-2103053848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4912,7 +4706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132212920"/>
+        <c:axId val="-2103053848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4947,7 +4741,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132605336"/>
+        <c:crossAx val="-2103059320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5675,11 +5469,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2132487464"/>
-        <c:axId val="-2133336056"/>
+        <c:axId val="-2103996072"/>
+        <c:axId val="-2103992488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2132487464"/>
+        <c:axId val="-2103996072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5708,7 +5502,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133336056"/>
+        <c:crossAx val="-2103992488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5716,7 +5510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2133336056"/>
+        <c:axId val="-2103992488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5750,7 +5544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132487464"/>
+        <c:crossAx val="-2103996072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6478,11 +6272,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2122014056"/>
-        <c:axId val="-2121987784"/>
+        <c:axId val="-2103977208"/>
+        <c:axId val="-2103971720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2122014056"/>
+        <c:axId val="-2103977208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6511,7 +6305,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121987784"/>
+        <c:crossAx val="-2103971720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6519,7 +6313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2121987784"/>
+        <c:axId val="-2103971720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6554,7 +6348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122014056"/>
+        <c:crossAx val="-2103977208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6617,152 +6411,32 @@
                 <c:pt idx="0">
                   <c:v>1000.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9000.0</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>11000.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>13000.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17000.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19000.0</c:v>
-                </c:pt>
                 <c:pt idx="10">
                   <c:v>21000.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>23000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25000.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27000.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29000.0</c:v>
-                </c:pt>
                 <c:pt idx="15">
                   <c:v>31000.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>33000.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35000.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37000.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>39000.0</c:v>
-                </c:pt>
                 <c:pt idx="20">
                   <c:v>41000.0</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>43000.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45000.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>47000.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>49000.0</c:v>
-                </c:pt>
                 <c:pt idx="25">
                   <c:v>51000.0</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>53000.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>55000.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>57000.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>59000.0</c:v>
-                </c:pt>
                 <c:pt idx="30">
                   <c:v>61000.0</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>63000.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>65000.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>67000.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>69000.0</c:v>
-                </c:pt>
                 <c:pt idx="35">
                   <c:v>71000.0</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>73000.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>75000.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>77000.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>79000.0</c:v>
-                </c:pt>
                 <c:pt idx="40">
                   <c:v>81000.0</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>83000.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>85000.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>87000.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>89000.0</c:v>
-                </c:pt>
                 <c:pt idx="45">
                   <c:v>91000.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>93000.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>95000.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>97000.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>99000.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>101000.0</c:v>
@@ -6955,152 +6629,32 @@
                 <c:pt idx="0">
                   <c:v>1000.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9000.0</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>11000.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>13000.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17000.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19000.0</c:v>
-                </c:pt>
                 <c:pt idx="10">
                   <c:v>21000.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>23000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25000.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27000.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29000.0</c:v>
-                </c:pt>
                 <c:pt idx="15">
                   <c:v>31000.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>33000.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35000.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37000.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>39000.0</c:v>
-                </c:pt>
                 <c:pt idx="20">
                   <c:v>41000.0</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>43000.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45000.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>47000.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>49000.0</c:v>
-                </c:pt>
                 <c:pt idx="25">
                   <c:v>51000.0</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>53000.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>55000.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>57000.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>59000.0</c:v>
-                </c:pt>
                 <c:pt idx="30">
                   <c:v>61000.0</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>63000.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>65000.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>67000.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>69000.0</c:v>
-                </c:pt>
                 <c:pt idx="35">
                   <c:v>71000.0</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>73000.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>75000.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>77000.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>79000.0</c:v>
-                </c:pt>
                 <c:pt idx="40">
                   <c:v>81000.0</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>83000.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>85000.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>87000.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>89000.0</c:v>
-                </c:pt>
                 <c:pt idx="45">
                   <c:v>91000.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>93000.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>95000.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>97000.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>99000.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>101000.0</c:v>
@@ -7282,11 +6836,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2142276056"/>
-        <c:axId val="2145806312"/>
+        <c:axId val="-2122388264"/>
+        <c:axId val="-2122382776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142276056"/>
+        <c:axId val="-2122388264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7315,7 +6869,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145806312"/>
+        <c:crossAx val="-2122382776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7323,7 +6877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2145806312"/>
+        <c:axId val="-2122382776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7358,7 +6912,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142276056"/>
+        <c:crossAx val="-2122388264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7421,152 +6975,32 @@
                 <c:pt idx="0">
                   <c:v>1000.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9000.0</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>11000.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>13000.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17000.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19000.0</c:v>
-                </c:pt>
                 <c:pt idx="10">
                   <c:v>21000.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>23000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25000.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27000.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29000.0</c:v>
-                </c:pt>
                 <c:pt idx="15">
                   <c:v>31000.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>33000.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35000.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37000.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>39000.0</c:v>
-                </c:pt>
                 <c:pt idx="20">
                   <c:v>41000.0</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>43000.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45000.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>47000.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>49000.0</c:v>
-                </c:pt>
                 <c:pt idx="25">
                   <c:v>51000.0</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>53000.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>55000.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>57000.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>59000.0</c:v>
-                </c:pt>
                 <c:pt idx="30">
                   <c:v>61000.0</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>63000.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>65000.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>67000.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>69000.0</c:v>
-                </c:pt>
                 <c:pt idx="35">
                   <c:v>71000.0</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>73000.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>75000.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>77000.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>79000.0</c:v>
-                </c:pt>
                 <c:pt idx="40">
                   <c:v>81000.0</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>83000.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>85000.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>87000.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>89000.0</c:v>
-                </c:pt>
                 <c:pt idx="45">
                   <c:v>91000.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>93000.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>95000.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>97000.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>99000.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>101000.0</c:v>
@@ -7759,152 +7193,32 @@
                 <c:pt idx="0">
                   <c:v>1000.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9000.0</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>11000.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>13000.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17000.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19000.0</c:v>
-                </c:pt>
                 <c:pt idx="10">
                   <c:v>21000.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>23000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25000.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27000.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29000.0</c:v>
-                </c:pt>
                 <c:pt idx="15">
                   <c:v>31000.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>33000.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35000.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37000.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>39000.0</c:v>
-                </c:pt>
                 <c:pt idx="20">
                   <c:v>41000.0</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>43000.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45000.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>47000.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>49000.0</c:v>
-                </c:pt>
                 <c:pt idx="25">
                   <c:v>51000.0</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>53000.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>55000.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>57000.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>59000.0</c:v>
-                </c:pt>
                 <c:pt idx="30">
                   <c:v>61000.0</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>63000.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>65000.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>67000.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>69000.0</c:v>
-                </c:pt>
                 <c:pt idx="35">
                   <c:v>71000.0</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>73000.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>75000.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>77000.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>79000.0</c:v>
-                </c:pt>
                 <c:pt idx="40">
                   <c:v>81000.0</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>83000.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>85000.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>87000.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>89000.0</c:v>
-                </c:pt>
                 <c:pt idx="45">
                   <c:v>91000.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>93000.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>95000.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>97000.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>99000.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>101000.0</c:v>
@@ -8086,11 +7400,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2140854440"/>
-        <c:axId val="2142443672"/>
+        <c:axId val="-2122351000"/>
+        <c:axId val="-2122345432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2140854440"/>
+        <c:axId val="-2122351000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8103,14 +7417,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="de-DE" sz="2000"/>
                   <a:t>Bloom Filter</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:rPr lang="de-DE" sz="2000" baseline="0"/>
                   <a:t> Size in Bit</a:t>
                 </a:r>
               </a:p>
@@ -8123,7 +7437,17 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142443672"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2122345432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8131,7 +7455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142443672"/>
+        <c:axId val="-2122345432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8145,11 +7469,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Number of 1 set</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Number of 1 set in composed BF</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8161,7 +7485,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140854440"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2122351000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8170,6 +7504,16 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -8224,152 +7568,32 @@
                 <c:pt idx="0">
                   <c:v>1000.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9000.0</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>11000.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>13000.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17000.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19000.0</c:v>
-                </c:pt>
                 <c:pt idx="10">
                   <c:v>21000.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>23000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25000.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27000.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29000.0</c:v>
-                </c:pt>
                 <c:pt idx="15">
                   <c:v>31000.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>33000.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35000.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37000.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>39000.0</c:v>
-                </c:pt>
                 <c:pt idx="20">
                   <c:v>41000.0</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>43000.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45000.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>47000.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>49000.0</c:v>
-                </c:pt>
                 <c:pt idx="25">
                   <c:v>51000.0</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>53000.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>55000.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>57000.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>59000.0</c:v>
-                </c:pt>
                 <c:pt idx="30">
                   <c:v>61000.0</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>63000.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>65000.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>67000.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>69000.0</c:v>
-                </c:pt>
                 <c:pt idx="35">
                   <c:v>71000.0</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>73000.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>75000.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>77000.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>79000.0</c:v>
-                </c:pt>
                 <c:pt idx="40">
                   <c:v>81000.0</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>83000.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>85000.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>87000.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>89000.0</c:v>
-                </c:pt>
                 <c:pt idx="45">
                   <c:v>91000.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>93000.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>95000.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>97000.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>99000.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>101000.0</c:v>
@@ -8562,152 +7786,32 @@
                 <c:pt idx="0">
                   <c:v>1000.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9000.0</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>11000.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>13000.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17000.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19000.0</c:v>
-                </c:pt>
                 <c:pt idx="10">
                   <c:v>21000.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>23000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25000.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27000.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29000.0</c:v>
-                </c:pt>
                 <c:pt idx="15">
                   <c:v>31000.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>33000.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35000.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37000.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>39000.0</c:v>
-                </c:pt>
                 <c:pt idx="20">
                   <c:v>41000.0</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>43000.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45000.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>47000.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>49000.0</c:v>
-                </c:pt>
                 <c:pt idx="25">
                   <c:v>51000.0</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>53000.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>55000.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>57000.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>59000.0</c:v>
-                </c:pt>
                 <c:pt idx="30">
                   <c:v>61000.0</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>63000.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>65000.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>67000.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>69000.0</c:v>
-                </c:pt>
                 <c:pt idx="35">
                   <c:v>71000.0</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>73000.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>75000.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>77000.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>79000.0</c:v>
-                </c:pt>
                 <c:pt idx="40">
                   <c:v>81000.0</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>83000.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>85000.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>87000.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>89000.0</c:v>
-                </c:pt>
                 <c:pt idx="45">
                   <c:v>91000.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>93000.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>95000.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>97000.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>99000.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>101000.0</c:v>
@@ -8889,11 +7993,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2139426488"/>
-        <c:axId val="2115314040"/>
+        <c:axId val="-2123285816"/>
+        <c:axId val="-2123291320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2139426488"/>
+        <c:axId val="-2123285816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8922,7 +8026,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115314040"/>
+        <c:crossAx val="-2123291320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8930,7 +8034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115314040"/>
+        <c:axId val="-2123291320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8960,7 +8064,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139426488"/>
+        <c:crossAx val="-2123285816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9688,11 +8792,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2139321768"/>
-        <c:axId val="2139377976"/>
+        <c:axId val="-2123341528"/>
+        <c:axId val="-2123347032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2139321768"/>
+        <c:axId val="-2123341528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9714,14 +8818,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139377976"/>
+        <c:crossAx val="-2123347032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9729,7 +8832,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139377976"/>
+        <c:axId val="-2123347032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9752,21 +8855,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139321768"/>
+        <c:crossAx val="-2123341528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10487,11 +9588,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2138133864"/>
-        <c:axId val="2121222984"/>
+        <c:axId val="-2103322632"/>
+        <c:axId val="-2103317144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2138133864"/>
+        <c:axId val="-2103322632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10513,14 +9614,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121222984"/>
+        <c:crossAx val="-2103317144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10528,7 +9628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121222984"/>
+        <c:axId val="-2103317144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10551,21 +9651,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138133864"/>
+        <c:crossAx val="-2103322632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11286,11 +10384,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2135456744"/>
-        <c:axId val="-2135450968"/>
+        <c:axId val="-2103285464"/>
+        <c:axId val="-2103279976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2135456744"/>
+        <c:axId val="-2103285464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11312,14 +10410,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135450968"/>
+        <c:crossAx val="-2103279976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11327,7 +10424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2135450968"/>
+        <c:axId val="-2103279976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11350,21 +10447,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135456744"/>
+        <c:crossAx val="-2103285464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12085,11 +11180,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2105974968"/>
-        <c:axId val="2105864728"/>
+        <c:axId val="2079547112"/>
+        <c:axId val="2079542232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2105974968"/>
+        <c:axId val="2079547112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12111,14 +11206,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105864728"/>
+        <c:crossAx val="2079542232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12126,7 +11220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105864728"/>
+        <c:axId val="2079542232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12154,21 +11248,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105974968"/>
+        <c:crossAx val="2079547112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12889,11 +11981,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2138644184"/>
-        <c:axId val="-2135156040"/>
+        <c:axId val="-2103234536"/>
+        <c:axId val="-2103229048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2138644184"/>
+        <c:axId val="-2103234536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12922,7 +12014,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135156040"/>
+        <c:crossAx val="-2103229048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12930,7 +12022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2135156040"/>
+        <c:axId val="-2103229048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12965,7 +12057,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138644184"/>
+        <c:crossAx val="-2103234536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12991,16 +12083,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13051,16 +12143,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13811,8 +12903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA14"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="C14" activeCellId="1" sqref="C6:BA6 C14:BA14"/>
+    <sheetView tabSelected="1" topLeftCell="AT19" workbookViewId="0">
+      <selection activeCell="AV35" sqref="AV35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13832,153 +12924,73 @@
       <c r="C2" s="1">
         <v>1000</v>
       </c>
-      <c r="D2" s="1">
-        <v>3000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F2" s="1">
-        <v>7000</v>
-      </c>
-      <c r="G2" s="1">
-        <v>9000</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="1">
         <v>11000</v>
       </c>
-      <c r="I2" s="1">
-        <v>13000</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15000</v>
-      </c>
-      <c r="K2" s="1">
-        <v>17000</v>
-      </c>
-      <c r="L2" s="1">
-        <v>19000</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
       <c r="M2" s="1">
         <v>21000</v>
       </c>
-      <c r="N2" s="1">
-        <v>23000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>25000</v>
-      </c>
-      <c r="P2" s="1">
-        <v>27000</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>29000</v>
-      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
       <c r="R2" s="1">
         <v>31000</v>
       </c>
-      <c r="S2" s="1">
-        <v>33000</v>
-      </c>
-      <c r="T2" s="1">
-        <v>35000</v>
-      </c>
-      <c r="U2" s="1">
-        <v>37000</v>
-      </c>
-      <c r="V2" s="1">
-        <v>39000</v>
-      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
       <c r="W2" s="1">
         <v>41000</v>
       </c>
-      <c r="X2" s="1">
-        <v>43000</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>45000</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>47000</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>49000</v>
-      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
       <c r="AB2" s="1">
         <v>51000</v>
       </c>
-      <c r="AC2" s="1">
-        <v>53000</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>55000</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>57000</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>59000</v>
-      </c>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
       <c r="AG2" s="1">
         <v>61000</v>
       </c>
-      <c r="AH2" s="1">
-        <v>63000</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>65000</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>67000</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>69000</v>
-      </c>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
       <c r="AL2" s="1">
         <v>71000</v>
       </c>
-      <c r="AM2" s="1">
-        <v>73000</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>75000</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>77000</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>79000</v>
-      </c>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
       <c r="AQ2" s="1">
         <v>81000</v>
       </c>
-      <c r="AR2" s="1">
-        <v>83000</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>85000</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>87000</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>89000</v>
-      </c>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
       <c r="AV2" s="1">
         <v>91000</v>
       </c>
-      <c r="AW2" s="1">
-        <v>93000</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>95000</v>
-      </c>
-      <c r="AY2" s="1">
-        <v>97000</v>
-      </c>
-      <c r="AZ2" s="1">
-        <v>99000</v>
-      </c>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
       <c r="BA2" s="1">
         <v>101000</v>
       </c>
@@ -15436,7 +14448,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -17050,7 +16061,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -18664,7 +17674,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -18678,7 +17687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH3" workbookViewId="0">
+    <sheetView topLeftCell="AK10" workbookViewId="0">
       <selection activeCell="B14" activeCellId="1" sqref="B6:AZ6 B14:AZ14"/>
     </sheetView>
   </sheetViews>

--- a/excel/summary_diagrams.xlsx
+++ b/excel/summary_diagrams.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13960" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="37920" windowHeight="19560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="k=1" sheetId="1" r:id="rId1"/>
@@ -616,11 +616,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2127077464"/>
-        <c:axId val="-2127069720"/>
+        <c:axId val="2144461304"/>
+        <c:axId val="2113363640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2127077464"/>
+        <c:axId val="2144461304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,7 +663,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127069720"/>
+        <c:crossAx val="2113363640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -671,7 +671,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127069720"/>
+        <c:axId val="2113363640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -711,7 +711,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127077464"/>
+        <c:crossAx val="2144461304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1449,11 +1449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2103188312"/>
-        <c:axId val="-2103182824"/>
+        <c:axId val="-2114976904"/>
+        <c:axId val="-2114969848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103188312"/>
+        <c:axId val="-2114976904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,11 +1466,15 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Bloom Filter Size in Bit</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Bloom Filter</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="2000" baseline="0"/>
+                  <a:t> Size in Bit</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1482,7 +1486,17 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103182824"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2114969848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1490,7 +1504,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103182824"/>
+        <c:axId val="-2114969848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1504,17 +1518,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Number of</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Number of 1 set in BF sal</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> 1 set in BF2</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1525,7 +1534,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103188312"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2114976904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1534,6 +1553,16 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2253,11 +2282,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2103150840"/>
-        <c:axId val="-2103145384"/>
+        <c:axId val="-2109567656"/>
+        <c:axId val="-2111161736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103150840"/>
+        <c:axId val="-2109567656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2270,11 +2299,15 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Bloom Filter Size in Bit</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Bloom Filter</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="2000" baseline="0"/>
+                  <a:t> Size in Bit</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2286,7 +2319,17 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103145384"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2111161736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2294,7 +2337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103145384"/>
+        <c:axId val="-2111161736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2308,17 +2351,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Number of</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Number of 1 set in composed BF</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> 1 set in BF3</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2329,7 +2367,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103150840"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2109567656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2338,6 +2386,16 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3057,11 +3115,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2103113064"/>
-        <c:axId val="-2103107576"/>
+        <c:axId val="-2109509192"/>
+        <c:axId val="-2113265544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103113064"/>
+        <c:axId val="-2109509192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3074,11 +3132,15 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Bloom Filter Size in Bit</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Bloom Filter</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="2000" baseline="0"/>
+                  <a:t> Size in Bit</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3090,7 +3152,17 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103107576"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2113265544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3098,7 +3170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103107576"/>
+        <c:axId val="-2113265544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3112,17 +3184,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Number of</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Number of False Positive</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> False Positive</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3133,7 +3200,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103113064"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2109509192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3142,6 +3219,16 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3861,11 +3948,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2103078072"/>
-        <c:axId val="-2103072520"/>
+        <c:axId val="-2114066344"/>
+        <c:axId val="-2101230552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103078072"/>
+        <c:axId val="-2114066344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3878,11 +3965,15 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Bloom Filter Size in Bit</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Bloom Filter</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="2000" baseline="0"/>
+                  <a:t> Size in Bit</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3894,7 +3985,17 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103072520"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2101230552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3902,7 +4003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103072520"/>
+        <c:axId val="-2101230552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3916,17 +4017,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Number of</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Number of 1 set in BF emp</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> 1 set in BF1</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3937,7 +4033,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103078072"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2114066344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3946,6 +4052,16 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4665,11 +4781,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2103059320"/>
-        <c:axId val="-2103053848"/>
+        <c:axId val="-2105712600"/>
+        <c:axId val="-2116338664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103059320"/>
+        <c:axId val="-2105712600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4682,11 +4798,15 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Bloom Filter Size in Bit</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Bloom Filter</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="2000" baseline="0"/>
+                  <a:t> Size in Bit</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4698,7 +4818,17 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103053848"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2116338664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4706,7 +4836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103053848"/>
+        <c:axId val="-2116338664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4720,17 +4850,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Number of</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Number of 1 set in BF sal</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> 1 set in BF2</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4741,7 +4866,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103059320"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2105712600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4750,6 +4885,16 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -5469,11 +5614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2103996072"/>
-        <c:axId val="-2103992488"/>
+        <c:axId val="-2109620680"/>
+        <c:axId val="-2117673288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103996072"/>
+        <c:axId val="-2109620680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5486,11 +5631,15 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Bloom Filter Size in Bit</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Bloom Filter</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="2000" baseline="0"/>
+                  <a:t> Size in Bit</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5502,7 +5651,17 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103992488"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2117673288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5510,7 +5669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103992488"/>
+        <c:axId val="-2117673288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5524,15 +5683,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Number of</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> 1 set in BF3</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Number of 1 set in composed BF</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5544,7 +5699,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103996072"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2109620680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5553,6 +5718,16 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -6272,11 +6447,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2103977208"/>
-        <c:axId val="-2103971720"/>
+        <c:axId val="-2110931080"/>
+        <c:axId val="-2109636952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103977208"/>
+        <c:axId val="-2110931080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6289,11 +6464,15 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Bloom Filter Size in Bit</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Bloom Filter</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="2000" baseline="0"/>
+                  <a:t> Size in Bit</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6305,7 +6484,17 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103971720"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2109636952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6313,7 +6502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103971720"/>
+        <c:axId val="-2109636952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6327,17 +6516,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Number of</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Number of False Positive</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> False Positive</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6348,7 +6532,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103977208"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2110931080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6357,6 +6551,16 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -6836,11 +7040,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2122388264"/>
-        <c:axId val="-2122382776"/>
+        <c:axId val="-2107177784"/>
+        <c:axId val="-2108720616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2122388264"/>
+        <c:axId val="-2107177784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6853,11 +7057,15 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Bloom FIlter Size in Bit</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Bloom Filter</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="2000" baseline="0"/>
+                  <a:t> Size in Bit</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6869,7 +7077,17 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122382776"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2108720616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6877,7 +7095,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122382776"/>
+        <c:axId val="-2108720616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6891,17 +7109,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Number</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Number of 1 set in BF sal</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> of 1 set</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6912,7 +7125,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122388264"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2107177784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6921,6 +7144,16 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -7400,11 +7633,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2122351000"/>
-        <c:axId val="-2122345432"/>
+        <c:axId val="2145481192"/>
+        <c:axId val="2145486792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2122351000"/>
+        <c:axId val="2145481192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7447,7 +7680,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122345432"/>
+        <c:crossAx val="2145486792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7455,7 +7688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122345432"/>
+        <c:axId val="2145486792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7495,7 +7728,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122351000"/>
+        <c:crossAx val="2145481192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7554,7 +7787,7 @@
             <c:v>Collected Data</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400"/>
+            <a:ln w="19050"/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -7772,7 +8005,7 @@
             <c:v>Expected Values</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400"/>
+            <a:ln w="19050"/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -7993,11 +8226,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2123285816"/>
-        <c:axId val="-2123291320"/>
+        <c:axId val="-2121649960"/>
+        <c:axId val="-2116531848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2123285816"/>
+        <c:axId val="-2121649960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8010,11 +8243,15 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Bloom Filter Size in Bit</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Bloom Filter</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="2000" baseline="0"/>
+                  <a:t> Size in Bit</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8026,7 +8263,17 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123291320"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2116531848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8034,7 +8281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123291320"/>
+        <c:axId val="-2116531848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8048,10 +8295,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="de-DE" sz="2000"/>
                   <a:t>Number of False Positive</a:t>
                 </a:r>
               </a:p>
@@ -8064,7 +8311,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123285816"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2121649960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8073,6 +8330,16 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -8792,11 +9059,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2123341528"/>
-        <c:axId val="-2123347032"/>
+        <c:axId val="2144155656"/>
+        <c:axId val="2144161592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2123341528"/>
+        <c:axId val="2144155656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8809,22 +9076,37 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Bloom Filter Size in Bit</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Bloom Filter</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="2000" baseline="0"/>
+                  <a:t> Size in Bit</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123347032"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2144161592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8832,7 +9114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123347032"/>
+        <c:axId val="2144161592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8846,29 +9128,51 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Number of 1 set BF1</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Number of 1 set in BF emp</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123341528"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2144155656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -9588,11 +9892,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2103322632"/>
-        <c:axId val="-2103317144"/>
+        <c:axId val="-2119613976"/>
+        <c:axId val="-2119611656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103322632"/>
+        <c:axId val="-2119613976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9605,22 +9909,37 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Bloom Filter Size in Bit</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Bloom Filter</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="2000" baseline="0"/>
+                  <a:t> Size in Bit</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103317144"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2119611656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9628,7 +9947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103317144"/>
+        <c:axId val="-2119611656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9642,29 +9961,51 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Number of 1 set BF2</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Number of 1 set in BF sal</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103322632"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2119613976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -10384,11 +10725,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2103285464"/>
-        <c:axId val="-2103279976"/>
+        <c:axId val="-2102171096"/>
+        <c:axId val="-2102125192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103285464"/>
+        <c:axId val="-2102171096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10401,22 +10742,37 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Bloom Filter Size in Bit</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Bloom Filter</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="2000" baseline="0"/>
+                  <a:t> Size in Bit</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103279976"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2102125192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10424,7 +10780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103279976"/>
+        <c:axId val="-2102125192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10438,29 +10794,51 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Number of 1 set BF3</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Number of 1 set in composed BF</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103285464"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2102171096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -11180,11 +11558,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2079547112"/>
-        <c:axId val="2079542232"/>
+        <c:axId val="2140502088"/>
+        <c:axId val="2140712280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2079547112"/>
+        <c:axId val="2140502088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11197,22 +11575,37 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Bloom Filter Size in Bit</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Bloom Filter</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="2000" baseline="0"/>
+                  <a:t> Size in Bit</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079542232"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140712280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11220,7 +11613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2079542232"/>
+        <c:axId val="2140712280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11234,34 +11627,51 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Number of</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Number of False Positive</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> False Positive</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079547112"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140502088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -11981,11 +12391,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2103234536"/>
-        <c:axId val="-2103229048"/>
+        <c:axId val="-2105082136"/>
+        <c:axId val="2145348056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103234536"/>
+        <c:axId val="-2105082136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11998,11 +12408,15 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Bloom Filter Size in Bit</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Bloom Filter</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="2000" baseline="0"/>
+                  <a:t> Size in Bit</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -12014,7 +12428,17 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103229048"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2145348056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12022,7 +12446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103229048"/>
+        <c:axId val="2145348056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12036,17 +12460,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Number of</a:t>
+                  <a:rPr lang="de-DE" sz="2000"/>
+                  <a:t>Number of 1 set in BF emp</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> 1 set in BF1</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -12057,7 +12476,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103234536"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2105082136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12066,6 +12495,16 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -12113,16 +12552,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12173,15 +12612,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12208,16 +12647,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12238,16 +12677,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12268,16 +12707,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12298,16 +12737,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12333,16 +12772,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12363,16 +12802,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12393,16 +12832,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12423,16 +12862,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12458,16 +12897,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12488,16 +12927,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12518,16 +12957,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12548,16 +12987,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12903,8 +13342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT19" workbookViewId="0">
-      <selection activeCell="AV35" sqref="AV35"/>
+    <sheetView topLeftCell="AO17" workbookViewId="0">
+      <selection activeCell="U43" sqref="U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14461,8 +14900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ14"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="B14" activeCellId="1" sqref="B6:AZ6 B14:AZ14"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AY24" sqref="AY24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16074,7 +16513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ14"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
+    <sheetView topLeftCell="AB1" workbookViewId="0">
       <selection activeCell="B14" activeCellId="1" sqref="B6:AZ6 B14:AZ14"/>
     </sheetView>
   </sheetViews>
@@ -17687,7 +18126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ14"/>
   <sheetViews>
-    <sheetView topLeftCell="AK10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z5" workbookViewId="0">
       <selection activeCell="B14" activeCellId="1" sqref="B6:AZ6 B14:AZ14"/>
     </sheetView>
   </sheetViews>
